--- a/maxim/kraskal.xlsx
+++ b/maxim/kraskal.xlsx
@@ -354,7 +354,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C100"/>
+  <dimension ref="A1:C151"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -376,10 +376,10 @@
         <v>2</v>
       </c>
       <c r="B2">
-        <v>0.009741347176688066</v>
+        <v>1.084999999999003E-06</v>
       </c>
       <c r="C2">
-        <v>0.007950448989868171</v>
+        <v>1.222999999999086E-06</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -387,10 +387,10 @@
         <v>3</v>
       </c>
       <c r="B3">
-        <v>0.01056633265513295</v>
+        <v>1.614000000002003E-06</v>
       </c>
       <c r="C3">
-        <v>0.01017265409793495</v>
+        <v>2.227000000000756E-06</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -398,10 +398,10 @@
         <v>4</v>
       </c>
       <c r="B4">
-        <v>0.0081403905695135</v>
+        <v>2.185000000001769E-06</v>
       </c>
       <c r="C4">
-        <v>0.009415682879361249</v>
+        <v>3.935999999995499E-06</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -409,10 +409,10 @@
         <v>5</v>
       </c>
       <c r="B5">
-        <v>0.01085884076244427</v>
+        <v>2.343999999997459E-06</v>
       </c>
       <c r="C5">
-        <v>0.009196577432020665</v>
+        <v>5.142999999997455E-06</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -420,10 +420,10 @@
         <v>6</v>
       </c>
       <c r="B6">
-        <v>0.007808594703674323</v>
+        <v>3.721999999999337E-06</v>
       </c>
       <c r="C6">
-        <v>0.0079875659942627</v>
+        <v>8.091999999997323E-06</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -431,10 +431,10 @@
         <v>7</v>
       </c>
       <c r="B7">
-        <v>0.009171779067428032</v>
+        <v>4.699999999993043E-06</v>
       </c>
       <c r="C7">
-        <v>0.007789397239685063</v>
+        <v>1.178500000000082E-05</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -442,10 +442,10 @@
         <v>8</v>
       </c>
       <c r="B8">
-        <v>0.009501645920124466</v>
+        <v>5.15499999999669E-06</v>
       </c>
       <c r="C8">
-        <v>0.007480515824987537</v>
+        <v>1.38210000000083E-05</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -453,10 +453,10 @@
         <v>9</v>
       </c>
       <c r="B9">
-        <v>0.009708541478866191</v>
+        <v>5.7730000000078E-06</v>
       </c>
       <c r="C9">
-        <v>0.008815077023628434</v>
+        <v>1.67179999999989E-05</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -464,10 +464,10 @@
         <v>10</v>
       </c>
       <c r="B10">
-        <v>0.008650780738668241</v>
+        <v>7.385000000000863E-06</v>
       </c>
       <c r="C10">
-        <v>0.008199687714272362</v>
+        <v>2.202400000000826E-05</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -475,10 +475,10 @@
         <v>11</v>
       </c>
       <c r="B11">
-        <v>0.009566439522637268</v>
+        <v>8.365000000001288E-06</v>
       </c>
       <c r="C11">
-        <v>0.00903300179375543</v>
+        <v>2.72770000000011E-05</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -486,10 +486,10 @@
         <v>12</v>
       </c>
       <c r="B12">
-        <v>0.01125575006008149</v>
+        <v>9.943000000003366E-06</v>
       </c>
       <c r="C12">
-        <v>0.006532315413157144</v>
+        <v>3.433999999998938E-05</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -497,10 +497,10 @@
         <v>13</v>
       </c>
       <c r="B13">
-        <v>0.0106168031692505</v>
+        <v>1.184400000000529E-05</v>
       </c>
       <c r="C13">
-        <v>0.00911903211048672</v>
+        <v>4.358400000000096E-05</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -508,10 +508,10 @@
         <v>14</v>
       </c>
       <c r="B14">
-        <v>0.008474135398864747</v>
+        <v>1.383200000000029E-05</v>
       </c>
       <c r="C14">
-        <v>0.008406237193516327</v>
+        <v>5.471299999999512E-05</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -519,10 +519,10 @@
         <v>15</v>
       </c>
       <c r="B15">
-        <v>0.009498869289051411</v>
+        <v>1.690900000000162E-05</v>
       </c>
       <c r="C15">
-        <v>0.009336406534368352</v>
+        <v>6.984799999999236E-05</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -530,10 +530,10 @@
         <v>16</v>
       </c>
       <c r="B16">
-        <v>0.009762320151695845</v>
+        <v>2.182299999999415E-05</v>
       </c>
       <c r="C16">
-        <v>0.008163471405322743</v>
+        <v>9.576400000000485E-05</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -541,10 +541,10 @@
         <v>17</v>
       </c>
       <c r="B17">
-        <v>0.01186209016916704</v>
+        <v>2.007500000000162E-05</v>
       </c>
       <c r="C17">
-        <v>0.009014817646571577</v>
+        <v>9.083699999999695E-05</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -552,10 +552,10 @@
         <v>18</v>
       </c>
       <c r="B18">
-        <v>0.01082218854855269</v>
+        <v>2.306099999999977E-05</v>
       </c>
       <c r="C18">
-        <v>0.008190530385726537</v>
+        <v>0.0001091930000000096</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -563,10 +563,10 @@
         <v>19</v>
       </c>
       <c r="B19">
-        <v>0.01075244078765045</v>
+        <v>2.513099999999824E-05</v>
       </c>
       <c r="C19">
-        <v>0.00755829553346376</v>
+        <v>0.0001250660000000092</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -574,10 +574,10 @@
         <v>20</v>
       </c>
       <c r="B20">
-        <v>0.008543977141380318</v>
+        <v>2.827599999998709E-05</v>
       </c>
       <c r="C20">
-        <v>0.01031030615170798</v>
+        <v>0.0001487560000000077</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -585,10 +585,10 @@
         <v>21</v>
       </c>
       <c r="B21">
-        <v>0.00941085582826196</v>
+        <v>3.562600000000638E-05</v>
       </c>
       <c r="C21">
-        <v>0.009162650457242643</v>
+        <v>0.0002092789999999978</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -596,10 +596,10 @@
         <v>22</v>
       </c>
       <c r="B22">
-        <v>0.01021284759044648</v>
+        <v>3.872300000000273E-05</v>
       </c>
       <c r="C22">
-        <v>0.008029941717783614</v>
+        <v>0.0002210969999999923</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -607,10 +607,10 @@
         <v>23</v>
       </c>
       <c r="B23">
-        <v>0.009820426778590432</v>
+        <v>4.045700000000707E-05</v>
       </c>
       <c r="C23">
-        <v>0.008082877828719772</v>
+        <v>0.0002221699999999949</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -618,10 +618,10 @@
         <v>24</v>
       </c>
       <c r="B24">
-        <v>0.01088572478875882</v>
+        <v>4.117700000001001E-05</v>
       </c>
       <c r="C24">
-        <v>0.01015927500841095</v>
+        <v>0.0002515009999999984</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -629,10 +629,10 @@
         <v>25</v>
       </c>
       <c r="B25">
-        <v>0.00951967355681629</v>
+        <v>4.325800000002378E-05</v>
       </c>
       <c r="C25">
-        <v>0.008751209770760889</v>
+        <v>0.0002702390000000143</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -640,10 +640,10 @@
         <v>26</v>
       </c>
       <c r="B26">
-        <v>0.01083735153079034</v>
+        <v>4.694599999999216E-05</v>
       </c>
       <c r="C26">
-        <v>0.009142988920211804</v>
+        <v>0.0003113260000000118</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -651,10 +651,10 @@
         <v>27</v>
       </c>
       <c r="B27">
-        <v>0.008866522389073537</v>
+        <v>5.213899999999771E-05</v>
       </c>
       <c r="C27">
-        <v>0.009181827114474397</v>
+        <v>0.0003490849999999935</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -662,10 +662,10 @@
         <v>28</v>
       </c>
       <c r="B28">
-        <v>0.01025224479974486</v>
+        <v>5.654999999999521E-05</v>
       </c>
       <c r="C28">
-        <v>0.008255816440956274</v>
+        <v>0.0003884510000000008</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -673,10 +673,10 @@
         <v>29</v>
       </c>
       <c r="B29">
-        <v>0.0094089618750981</v>
+        <v>6.371600000000477E-05</v>
       </c>
       <c r="C29">
-        <v>0.008653702906199875</v>
+        <v>0.0004328940000000437</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -684,10 +684,10 @@
         <v>30</v>
       </c>
       <c r="B30">
-        <v>0.0114142808047208</v>
+        <v>6.530700000003886E-05</v>
       </c>
       <c r="C30">
-        <v>0.01098223924636842</v>
+        <v>0.0004973039999999873</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -695,10 +695,10 @@
         <v>31</v>
       </c>
       <c r="B31">
-        <v>0.009780987755197005</v>
+        <v>7.020999999993283E-05</v>
       </c>
       <c r="C31">
-        <v>0.009094424325911735</v>
+        <v>0.000540745000000018</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -706,10 +706,10 @@
         <v>32</v>
       </c>
       <c r="B32">
-        <v>0.009910420009068086</v>
+        <v>7.333899999998117E-05</v>
       </c>
       <c r="C32">
-        <v>0.008135910261245003</v>
+        <v>0.0005981649999999483</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -717,10 +717,10 @@
         <v>33</v>
       </c>
       <c r="B33">
-        <v>0.009946457544962574</v>
+        <v>8.08900000000179E-05</v>
       </c>
       <c r="C33">
-        <v>0.009992833932240814</v>
+        <v>0.0006685160000000145</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -728,10 +728,10 @@
         <v>34</v>
       </c>
       <c r="B34">
-        <v>0.01014360948042437</v>
+        <v>8.508100000001128E-05</v>
       </c>
       <c r="C34">
-        <v>0.01195262562144887</v>
+        <v>0.0007318799999999736</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -739,10 +739,10 @@
         <v>35</v>
       </c>
       <c r="B35">
-        <v>0.009707776536332806</v>
+        <v>9.017100000001221E-05</v>
       </c>
       <c r="C35">
-        <v>0.01146811728781843</v>
+        <v>0.000821796000000008</v>
       </c>
     </row>
     <row r="36" spans="1:3">
@@ -750,10 +750,10 @@
         <v>36</v>
       </c>
       <c r="B36">
-        <v>0.009423875808715827</v>
+        <v>9.562199999997745E-05</v>
       </c>
       <c r="C36">
-        <v>0.01131846408049267</v>
+        <v>0.0008849240000000335</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -761,10 +761,10 @@
         <v>37</v>
       </c>
       <c r="B37">
-        <v>0.01081899063927788</v>
+        <v>0.0001064659999999762</v>
       </c>
       <c r="C37">
-        <v>0.01308033125741142</v>
+        <v>0.0009663339999999731</v>
       </c>
     </row>
     <row r="38" spans="1:3">
@@ -772,10 +772,10 @@
         <v>38</v>
       </c>
       <c r="B38">
-        <v>0.009903983580760469</v>
+        <v>0.0001100570000000278</v>
       </c>
       <c r="C38">
-        <v>0.01191383997599285</v>
+        <v>0.001064428999999985</v>
       </c>
     </row>
     <row r="39" spans="1:3">
@@ -783,10 +783,10 @@
         <v>39</v>
       </c>
       <c r="B39">
-        <v>0.01157484488053756</v>
+        <v>0.000110552999999971</v>
       </c>
       <c r="C39">
-        <v>0.01411155353892934</v>
+        <v>0.001145191000000025</v>
       </c>
     </row>
     <row r="40" spans="1:3">
@@ -794,10 +794,10 @@
         <v>40</v>
       </c>
       <c r="B40">
-        <v>0.009255381992885049</v>
+        <v>0.000123614999999937</v>
       </c>
       <c r="C40">
-        <v>0.01147476702320333</v>
+        <v>0.001287351999999995</v>
       </c>
     </row>
     <row r="41" spans="1:3">
@@ -805,10 +805,10 @@
         <v>41</v>
       </c>
       <c r="B41">
-        <v>0.01041440413548397</v>
+        <v>0.0001286050000000394</v>
       </c>
       <c r="C41">
-        <v>0.01261210991786078</v>
+        <v>0.001371713999999979</v>
       </c>
     </row>
     <row r="42" spans="1:3">
@@ -816,10 +816,10 @@
         <v>42</v>
       </c>
       <c r="B42">
-        <v>0.01021808858187695</v>
+        <v>0.000134972000000122</v>
       </c>
       <c r="C42">
-        <v>0.01185775163038723</v>
+        <v>0.001488309999999888</v>
       </c>
     </row>
     <row r="43" spans="1:3">
@@ -827,10 +827,10 @@
         <v>43</v>
       </c>
       <c r="B43">
-        <v>0.008991942405700691</v>
+        <v>0.000134536999999888</v>
       </c>
       <c r="C43">
-        <v>0.01195600986480714</v>
+        <v>0.001570952000000059</v>
       </c>
     </row>
     <row r="44" spans="1:3">
@@ -838,10 +838,10 @@
         <v>44</v>
       </c>
       <c r="B44">
-        <v>0.009124412139256804</v>
+        <v>0.0001456320000000488</v>
       </c>
       <c r="C44">
-        <v>0.01235401034355164</v>
+        <v>0.001742932999999951</v>
       </c>
     </row>
     <row r="45" spans="1:3">
@@ -849,10 +849,10 @@
         <v>45</v>
       </c>
       <c r="B45">
-        <v>0.008942717836614249</v>
+        <v>0.0001554809999999485</v>
       </c>
       <c r="C45">
-        <v>0.01105969495940628</v>
+        <v>0.001913749000000102</v>
       </c>
     </row>
     <row r="46" spans="1:3">
@@ -860,10 +860,10 @@
         <v>46</v>
       </c>
       <c r="B46">
-        <v>0.007805416800759061</v>
+        <v>0.0002246730000000952</v>
       </c>
       <c r="C46">
-        <v>0.01274056001143023</v>
+        <v>0.00202323299999998</v>
       </c>
     </row>
     <row r="47" spans="1:3">
@@ -871,10 +871,10 @@
         <v>47</v>
       </c>
       <c r="B47">
-        <v>0.009035820331213619</v>
+        <v>0.0001685760000001579</v>
       </c>
       <c r="C47">
-        <v>0.01356063608853323</v>
+        <v>0.002187768000000005</v>
       </c>
     </row>
     <row r="48" spans="1:3">
@@ -882,10 +882,10 @@
         <v>48</v>
       </c>
       <c r="B48">
-        <v>0.009895384102536932</v>
+        <v>0.0001819930000000269</v>
       </c>
       <c r="C48">
-        <v>0.01360772032486766</v>
+        <v>0.00239008100000003</v>
       </c>
     </row>
     <row r="49" spans="1:3">
@@ -893,10 +893,10 @@
         <v>49</v>
       </c>
       <c r="B49">
-        <v>0.00847287178039551</v>
+        <v>0.0001806259999999327</v>
       </c>
       <c r="C49">
-        <v>0.0103482723236084</v>
+        <v>0.002531927999999937</v>
       </c>
     </row>
     <row r="50" spans="1:3">
@@ -904,10 +904,10 @@
         <v>50</v>
       </c>
       <c r="B50">
-        <v>0.01066762768492408</v>
+        <v>0.0001891880000001578</v>
       </c>
       <c r="C50">
-        <v>0.01441336359296527</v>
+        <v>0.002771590999999774</v>
       </c>
     </row>
     <row r="51" spans="1:3">
@@ -915,10 +915,10 @@
         <v>51</v>
       </c>
       <c r="B51">
-        <v>0.01025271726691205</v>
+        <v>0.0002008389999999594</v>
       </c>
       <c r="C51">
-        <v>0.01512557319972827</v>
+        <v>0.002945572999999975</v>
       </c>
     </row>
     <row r="52" spans="1:3">
@@ -926,10 +926,10 @@
         <v>52</v>
       </c>
       <c r="B52">
-        <v>0.01046416942889875</v>
+        <v>0.0002093029999997853</v>
       </c>
       <c r="C52">
-        <v>0.01400095316079948</v>
+        <v>0.003215073999999909</v>
       </c>
     </row>
     <row r="53" spans="1:3">
@@ -937,10 +937,10 @@
         <v>53</v>
       </c>
       <c r="B53">
-        <v>0.01057481119188213</v>
+        <v>0.0002182179999998013</v>
       </c>
       <c r="C53">
-        <v>0.01216259002685548</v>
+        <v>0.003390253000000207</v>
       </c>
     </row>
     <row r="54" spans="1:3">
@@ -948,10 +948,10 @@
         <v>54</v>
       </c>
       <c r="B54">
-        <v>0.009411892524132374</v>
+        <v>0.0002251590000001258</v>
       </c>
       <c r="C54">
-        <v>0.01401223402756912</v>
+        <v>0.003589737</v>
       </c>
     </row>
     <row r="55" spans="1:3">
@@ -959,10 +959,10 @@
         <v>55</v>
       </c>
       <c r="B55">
-        <v>0.008690468770153127</v>
+        <v>0.0002360809999998281</v>
       </c>
       <c r="C55">
-        <v>0.01541292352496454</v>
+        <v>0.003853955000000191</v>
       </c>
     </row>
     <row r="56" spans="1:3">
@@ -970,10 +970,10 @@
         <v>56</v>
       </c>
       <c r="B56">
-        <v>0.009568812630393298</v>
+        <v>0.0002416040000000663</v>
       </c>
       <c r="C56">
-        <v>0.01937812241640957</v>
+        <v>0.004093122999999679</v>
       </c>
     </row>
     <row r="57" spans="1:3">
@@ -981,10 +981,10 @@
         <v>57</v>
       </c>
       <c r="B57">
-        <v>0.01213709757878231</v>
+        <v>0.0002514990000003081</v>
       </c>
       <c r="C57">
-        <v>0.02440815797218909</v>
+        <v>0.004376707999999994</v>
       </c>
     </row>
     <row r="58" spans="1:3">
@@ -992,10 +992,10 @@
         <v>58</v>
       </c>
       <c r="B58">
-        <v>0.01030971698271923</v>
+        <v>0.0002637609999997182</v>
       </c>
       <c r="C58">
-        <v>0.02537530140999037</v>
+        <v>0.004671695999999983</v>
       </c>
     </row>
     <row r="59" spans="1:3">
@@ -1003,10 +1003,10 @@
         <v>59</v>
       </c>
       <c r="B59">
-        <v>0.01074213114651768</v>
+        <v>0.0002715979999997131</v>
       </c>
       <c r="C59">
-        <v>0.02541500004855068</v>
+        <v>0.004959733999999471</v>
       </c>
     </row>
     <row r="60" spans="1:3">
@@ -1014,10 +1014,10 @@
         <v>60</v>
       </c>
       <c r="B60">
-        <v>0.01094277180158176</v>
+        <v>0.0002840299999998308</v>
       </c>
       <c r="C60">
-        <v>0.02684540565197283</v>
+        <v>0.005273047000000019</v>
       </c>
     </row>
     <row r="61" spans="1:3">
@@ -1025,10 +1025,10 @@
         <v>61</v>
       </c>
       <c r="B61">
-        <v>0.009326052215864083</v>
+        <v>0.0002874750000001569</v>
       </c>
       <c r="C61">
-        <v>0.0279819551503883</v>
+        <v>0.005624115999999759</v>
       </c>
     </row>
     <row r="62" spans="1:3">
@@ -1036,10 +1036,10 @@
         <v>62</v>
       </c>
       <c r="B62">
-        <v>0.010141844976516</v>
+        <v>0.000309898000000075</v>
       </c>
       <c r="C62">
-        <v>0.0299774135862078</v>
+        <v>0.005961689000000234</v>
       </c>
     </row>
     <row r="63" spans="1:3">
@@ -1047,10 +1047,10 @@
         <v>63</v>
       </c>
       <c r="B63">
-        <v>0.01147255816702117</v>
+        <v>0.0003202040000004303</v>
       </c>
       <c r="C63">
-        <v>0.02771729291495628</v>
+        <v>0.006349874000000142</v>
       </c>
     </row>
     <row r="64" spans="1:3">
@@ -1058,10 +1058,10 @@
         <v>64</v>
       </c>
       <c r="B64">
-        <v>0.009976880093838313</v>
+        <v>0.0003183140000005835</v>
       </c>
       <c r="C64">
-        <v>0.03311216171751629</v>
+        <v>0.006661888999999874</v>
       </c>
     </row>
     <row r="65" spans="1:3">
@@ -1069,10 +1069,10 @@
         <v>65</v>
       </c>
       <c r="B65">
-        <v>0.01190252833896214</v>
+        <v>0.0003496299999999053</v>
       </c>
       <c r="C65">
-        <v>0.03171383010016546</v>
+        <v>0.00717912799999965</v>
       </c>
     </row>
     <row r="66" spans="1:3">
@@ -1080,10 +1080,10 @@
         <v>66</v>
       </c>
       <c r="B66">
-        <v>0.01167493462562562</v>
+        <v>0.0003468269999999052</v>
       </c>
       <c r="C66">
-        <v>0.03304395973682404</v>
+        <v>0.00757462100000005</v>
       </c>
     </row>
     <row r="67" spans="1:3">
@@ -1091,10 +1091,10 @@
         <v>67</v>
       </c>
       <c r="B67">
-        <v>0.01052884374346053</v>
+        <v>0.0003625809999992669</v>
       </c>
       <c r="C67">
-        <v>0.0362700608311867</v>
+        <v>0.008070438000000308</v>
       </c>
     </row>
     <row r="68" spans="1:3">
@@ -1102,10 +1102,10 @@
         <v>68</v>
       </c>
       <c r="B68">
-        <v>0.009884763250545589</v>
+        <v>0.0003777390000006165</v>
       </c>
       <c r="C68">
-        <v>0.03767036613152949</v>
+        <v>0.008531105000000422</v>
       </c>
     </row>
     <row r="69" spans="1:3">
@@ -1113,10 +1113,10 @@
         <v>69</v>
       </c>
       <c r="B69">
-        <v>0.01129938949972898</v>
+        <v>0.0003829980000007538</v>
       </c>
       <c r="C69">
-        <v>0.04033056517778812</v>
+        <v>0.009037764000000408</v>
       </c>
     </row>
     <row r="70" spans="1:3">
@@ -1124,10 +1124,10 @@
         <v>70</v>
       </c>
       <c r="B70">
-        <v>0.01097878133746941</v>
+        <v>0.0003948689999999999</v>
       </c>
       <c r="C70">
-        <v>0.04160117297105381</v>
+        <v>0.00949511799999982</v>
       </c>
     </row>
     <row r="71" spans="1:3">
@@ -1135,10 +1135,10 @@
         <v>71</v>
       </c>
       <c r="B71">
-        <v>0.01053501367568971</v>
+        <v>0.0004163480000005393</v>
       </c>
       <c r="C71">
-        <v>0.04278165499369298</v>
+        <v>0.01003316900000002</v>
       </c>
     </row>
     <row r="72" spans="1:3">
@@ -1146,10 +1146,10 @@
         <v>72</v>
       </c>
       <c r="B72">
-        <v>0.0100961347905601</v>
+        <v>0.0004137129999998024</v>
       </c>
       <c r="C72">
-        <v>0.04868453072338565</v>
+        <v>0.01054619200000033</v>
       </c>
     </row>
     <row r="73" spans="1:3">
@@ -1157,10 +1157,10 @@
         <v>73</v>
       </c>
       <c r="B73">
-        <v>0.009129256390510727</v>
+        <v>0.0004491070000014474</v>
       </c>
       <c r="C73">
-        <v>0.05135630648186862</v>
+        <v>0.01103451899999911</v>
       </c>
     </row>
     <row r="74" spans="1:3">
@@ -1168,10 +1168,10 @@
         <v>74</v>
       </c>
       <c r="B74">
-        <v>0.01138597594367134</v>
+        <v>0.0004413020000004053</v>
       </c>
       <c r="C74">
-        <v>0.04960652987162268</v>
+        <v>0.01170018599999977</v>
       </c>
     </row>
     <row r="75" spans="1:3">
@@ -1179,10 +1179,10 @@
         <v>75</v>
       </c>
       <c r="B75">
-        <v>0.01071559723387374</v>
+        <v>0.0004677770000007797</v>
       </c>
       <c r="C75">
-        <v>0.05426202530556531</v>
+        <v>0.01225162899999944</v>
       </c>
     </row>
     <row r="76" spans="1:3">
@@ -1190,10 +1190,10 @@
         <v>76</v>
       </c>
       <c r="B76">
-        <v>0.0104177672688554</v>
+        <v>0.0005110410000000343</v>
       </c>
       <c r="C76">
-        <v>0.05784895710828824</v>
+        <v>0.01289579199999949</v>
       </c>
     </row>
     <row r="77" spans="1:3">
@@ -1201,10 +1201,10 @@
         <v>77</v>
       </c>
       <c r="B77">
-        <v>0.01157193779945375</v>
+        <v>0.0006096309999998084</v>
       </c>
       <c r="C77">
-        <v>0.05810261666774744</v>
+        <v>0.01363564400000101</v>
       </c>
     </row>
     <row r="78" spans="1:3">
@@ -1212,10 +1212,10 @@
         <v>78</v>
       </c>
       <c r="B78">
-        <v>0.01164290006043482</v>
+        <v>0.0006614719999993213</v>
       </c>
       <c r="C78">
-        <v>0.05950110310413793</v>
+        <v>0.01476361700000325</v>
       </c>
     </row>
     <row r="79" spans="1:3">
@@ -1223,10 +1223,10 @@
         <v>79</v>
       </c>
       <c r="B79">
-        <v>0.01099688342360201</v>
+        <v>0.000666114999998797</v>
       </c>
       <c r="C79">
-        <v>0.06462067307018837</v>
+        <v>0.01518129600000236</v>
       </c>
     </row>
     <row r="80" spans="1:3">
@@ -1234,10 +1234,10 @@
         <v>80</v>
       </c>
       <c r="B80">
-        <v>0.0119235533255118</v>
+        <v>0.0006679220000000896</v>
       </c>
       <c r="C80">
-        <v>0.06635887711136423</v>
+        <v>0.01588945900000084</v>
       </c>
     </row>
     <row r="81" spans="1:3">
@@ -1245,10 +1245,10 @@
         <v>81</v>
       </c>
       <c r="B81">
-        <v>0.01195577184359233</v>
+        <v>0.0006887079999998491</v>
       </c>
       <c r="C81">
-        <v>0.0669763326644897</v>
+        <v>0.01662702700000068</v>
       </c>
     </row>
     <row r="82" spans="1:3">
@@ -1256,10 +1256,10 @@
         <v>82</v>
       </c>
       <c r="B82">
-        <v>0.01117415825525921</v>
+        <v>0.0007138810000003559</v>
       </c>
       <c r="C82">
-        <v>0.07520928382873533</v>
+        <v>0.01744170599999677</v>
       </c>
     </row>
     <row r="83" spans="1:3">
@@ -1267,10 +1267,10 @@
         <v>83</v>
       </c>
       <c r="B83">
-        <v>0.01079330444335938</v>
+        <v>0.0007251650000023347</v>
       </c>
       <c r="C83">
-        <v>0.07469019889831538</v>
+        <v>0.0182385270000006</v>
       </c>
     </row>
     <row r="84" spans="1:3">
@@ -1278,10 +1278,10 @@
         <v>84</v>
       </c>
       <c r="B84">
-        <v>0.01151877114939136</v>
+        <v>0.0007324080000023513</v>
       </c>
       <c r="C84">
-        <v>0.07343981321467904</v>
+        <v>0.01909599400000104</v>
       </c>
     </row>
     <row r="85" spans="1:3">
@@ -1289,10 +1289,10 @@
         <v>85</v>
       </c>
       <c r="B85">
-        <v>0.01058920802492085</v>
+        <v>0.0007422290000027943</v>
       </c>
       <c r="C85">
-        <v>0.07818385904485532</v>
+        <v>0.02006722400000001</v>
       </c>
     </row>
     <row r="86" spans="1:3">
@@ -1300,10 +1300,10 @@
         <v>86</v>
       </c>
       <c r="B86">
-        <v>0.01003656290015397</v>
+        <v>0.0007689179999979956</v>
       </c>
       <c r="C86">
-        <v>0.08190299248208799</v>
+        <v>0.02093829499999828</v>
       </c>
     </row>
     <row r="87" spans="1:3">
@@ -1311,10 +1311,10 @@
         <v>87</v>
       </c>
       <c r="B87">
-        <v>0.01206924915313721</v>
+        <v>0.0007757720000000745</v>
       </c>
       <c r="C87">
-        <v>0.08546384572982782</v>
+        <v>0.02197439399999979</v>
       </c>
     </row>
     <row r="88" spans="1:3">
@@ -1322,10 +1322,10 @@
         <v>88</v>
       </c>
       <c r="B88">
-        <v>0.01206507682800294</v>
+        <v>0.0007888259999973002</v>
       </c>
       <c r="C88">
-        <v>0.08751859664916999</v>
+        <v>0.02294958400000013</v>
       </c>
     </row>
     <row r="89" spans="1:3">
@@ -1333,10 +1333,10 @@
         <v>89</v>
       </c>
       <c r="B89">
-        <v>0.01110574807693711</v>
+        <v>0.0008224630000006527</v>
       </c>
       <c r="C89">
-        <v>0.09252328018643971</v>
+        <v>0.02392990000000083</v>
       </c>
     </row>
     <row r="90" spans="1:3">
@@ -1344,10 +1344,10 @@
         <v>90</v>
       </c>
       <c r="B90">
-        <v>0.01240497413946659</v>
+        <v>0.0008414899999999647</v>
       </c>
       <c r="C90">
-        <v>0.09473585790517378</v>
+        <v>0.02498791300000079</v>
       </c>
     </row>
     <row r="91" spans="1:3">
@@ -1355,10 +1355,10 @@
         <v>91</v>
       </c>
       <c r="B91">
-        <v>0.01208699731265798</v>
+        <v>0.0008630820000001904</v>
       </c>
       <c r="C91">
-        <v>0.103910462996539</v>
+        <v>0.02599772799999755</v>
       </c>
     </row>
     <row r="92" spans="1:3">
@@ -1366,10 +1366,10 @@
         <v>92</v>
       </c>
       <c r="B92">
-        <v>0.009674708787785024</v>
+        <v>0.0008642870000016955</v>
       </c>
       <c r="C92">
-        <v>0.1015520694643952</v>
+        <v>0.02713447300000268</v>
       </c>
     </row>
     <row r="93" spans="1:3">
@@ -1377,10 +1377,10 @@
         <v>93</v>
       </c>
       <c r="B93">
-        <v>0.01129885389093768</v>
+        <v>0.000877885999997261</v>
       </c>
       <c r="C93">
-        <v>0.109939576031869</v>
+        <v>0.02867903900000044</v>
       </c>
     </row>
     <row r="94" spans="1:3">
@@ -1388,10 +1388,10 @@
         <v>94</v>
       </c>
       <c r="B94">
-        <v>0.009727724031968555</v>
+        <v>0.0008959609999976692</v>
       </c>
       <c r="C94">
-        <v>0.1106443210081621</v>
+        <v>0.02979278699999668</v>
       </c>
     </row>
     <row r="95" spans="1:3">
@@ -1399,10 +1399,10 @@
         <v>95</v>
       </c>
       <c r="B95">
-        <v>0.01355678413225258</v>
+        <v>0.0009114709999994375</v>
       </c>
       <c r="C95">
-        <v>0.1183020425879437</v>
+        <v>0.0311034629999989</v>
       </c>
     </row>
     <row r="96" spans="1:3">
@@ -1410,10 +1410,10 @@
         <v>96</v>
       </c>
       <c r="B96">
-        <v>0.01105992842693719</v>
+        <v>0.0009189609999970117</v>
       </c>
       <c r="C96">
-        <v>0.11426738038355</v>
+        <v>0.03236368099999936</v>
       </c>
     </row>
     <row r="97" spans="1:3">
@@ -1421,10 +1421,10 @@
         <v>97</v>
       </c>
       <c r="B97">
-        <v>0.01151122073737944</v>
+        <v>0.0009358609999992496</v>
       </c>
       <c r="C97">
-        <v>0.1222062130363621</v>
+        <v>0.03362994999999842</v>
       </c>
     </row>
     <row r="98" spans="1:3">
@@ -1432,10 +1432,10 @@
         <v>98</v>
       </c>
       <c r="B98">
-        <v>0.01048968448195347</v>
+        <v>0.0009569970000001149</v>
       </c>
       <c r="C98">
-        <v>0.125491623545802</v>
+        <v>0.03506188099999918</v>
       </c>
     </row>
     <row r="99" spans="1:3">
@@ -1443,10 +1443,10 @@
         <v>99</v>
       </c>
       <c r="B99">
-        <v>0.01066541671752931</v>
+        <v>0.0009797799999972767</v>
       </c>
       <c r="C99">
-        <v>0.1267228460311891</v>
+        <v>0.03644725899999855</v>
       </c>
     </row>
     <row r="100" spans="1:3">
@@ -1454,10 +1454,571 @@
         <v>100</v>
       </c>
       <c r="B100">
-        <v>0.01249095863766142</v>
+        <v>0.0009885670000033997</v>
       </c>
       <c r="C100">
-        <v>0.134677380985684</v>
+        <v>0.03788783000000137</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3">
+      <c r="A101">
+        <v>101</v>
+      </c>
+      <c r="B101">
+        <v>0.001007835999999997</v>
+      </c>
+      <c r="C101">
+        <v>0.03955345100000045</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3">
+      <c r="A102">
+        <v>102</v>
+      </c>
+      <c r="B102">
+        <v>0.001055548000002204</v>
+      </c>
+      <c r="C102">
+        <v>0.04131801200000211</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3">
+      <c r="A103">
+        <v>103</v>
+      </c>
+      <c r="B103">
+        <v>0.001055888000000209</v>
+      </c>
+      <c r="C103">
+        <v>0.04296336599999904</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3">
+      <c r="A104">
+        <v>104</v>
+      </c>
+      <c r="B104">
+        <v>0.001084664999999063</v>
+      </c>
+      <c r="C104">
+        <v>0.04483534900000109</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3">
+      <c r="A105">
+        <v>105</v>
+      </c>
+      <c r="B105">
+        <v>0.001134907000000567</v>
+      </c>
+      <c r="C105">
+        <v>0.04648403300000325</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3">
+      <c r="A106">
+        <v>106</v>
+      </c>
+      <c r="B106">
+        <v>0.001213675999997576</v>
+      </c>
+      <c r="C106">
+        <v>0.04867032699999527</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3">
+      <c r="A107">
+        <v>107</v>
+      </c>
+      <c r="B107">
+        <v>0.001193915999998581</v>
+      </c>
+      <c r="C107">
+        <v>0.05043525899999622</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3">
+      <c r="A108">
+        <v>108</v>
+      </c>
+      <c r="B108">
+        <v>0.001233912999996392</v>
+      </c>
+      <c r="C108">
+        <v>0.05322302300000729</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3">
+      <c r="A109">
+        <v>109</v>
+      </c>
+      <c r="B109">
+        <v>0.001239705999994385</v>
+      </c>
+      <c r="C109">
+        <v>0.05436136200000533</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3">
+      <c r="A110">
+        <v>110</v>
+      </c>
+      <c r="B110">
+        <v>0.001273949000002403</v>
+      </c>
+      <c r="C110">
+        <v>0.05700968500000954</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3">
+      <c r="A111">
+        <v>111</v>
+      </c>
+      <c r="B111">
+        <v>0.001295025999995687</v>
+      </c>
+      <c r="C111">
+        <v>0.05866404099999272</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3">
+      <c r="A112">
+        <v>112</v>
+      </c>
+      <c r="B112">
+        <v>0.001314230999990969</v>
+      </c>
+      <c r="C112">
+        <v>0.06069197999999801</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3">
+      <c r="A113">
+        <v>113</v>
+      </c>
+      <c r="B113">
+        <v>0.001353814999994256</v>
+      </c>
+      <c r="C113">
+        <v>0.06281166999999641</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3">
+      <c r="A114">
+        <v>114</v>
+      </c>
+      <c r="B114">
+        <v>0.001346867000004295</v>
+      </c>
+      <c r="C114">
+        <v>0.06531712500001391</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3">
+      <c r="A115">
+        <v>115</v>
+      </c>
+      <c r="B115">
+        <v>0.001387042999994037</v>
+      </c>
+      <c r="C115">
+        <v>0.06754148299999428</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3">
+      <c r="A116">
+        <v>116</v>
+      </c>
+      <c r="B116">
+        <v>0.00137104399999771</v>
+      </c>
+      <c r="C116">
+        <v>0.07002358999999615</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3">
+      <c r="A117">
+        <v>117</v>
+      </c>
+      <c r="B117">
+        <v>0.001395502000004853</v>
+      </c>
+      <c r="C117">
+        <v>0.07258651699999973</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3">
+      <c r="A118">
+        <v>118</v>
+      </c>
+      <c r="B118">
+        <v>0.001407330999993519</v>
+      </c>
+      <c r="C118">
+        <v>0.07590560499999696</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3">
+      <c r="A119">
+        <v>119</v>
+      </c>
+      <c r="B119">
+        <v>0.001451535000006743</v>
+      </c>
+      <c r="C119">
+        <v>0.07784145799999692</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3">
+      <c r="A120">
+        <v>120</v>
+      </c>
+      <c r="B120">
+        <v>0.001508244999999988</v>
+      </c>
+      <c r="C120">
+        <v>0.08125802099999646</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3">
+      <c r="A121">
+        <v>121</v>
+      </c>
+      <c r="B121">
+        <v>0.001519860000004201</v>
+      </c>
+      <c r="C121">
+        <v>0.08362041899999439</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3">
+      <c r="A122">
+        <v>122</v>
+      </c>
+      <c r="B122">
+        <v>0.001546121000005769</v>
+      </c>
+      <c r="C122">
+        <v>0.08666170999999849</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3">
+      <c r="A123">
+        <v>123</v>
+      </c>
+      <c r="B123">
+        <v>0.00158186000000569</v>
+      </c>
+      <c r="C123">
+        <v>0.08983456400000706</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3">
+      <c r="A124">
+        <v>124</v>
+      </c>
+      <c r="B124">
+        <v>0.001594143999984681</v>
+      </c>
+      <c r="C124">
+        <v>0.09315439999999625</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3">
+      <c r="A125">
+        <v>125</v>
+      </c>
+      <c r="B125">
+        <v>0.001633848000005855</v>
+      </c>
+      <c r="C125">
+        <v>0.09652447300001085</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3">
+      <c r="A126">
+        <v>126</v>
+      </c>
+      <c r="B126">
+        <v>0.001661814000005961</v>
+      </c>
+      <c r="C126">
+        <v>0.100581636000004</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3">
+      <c r="A127">
+        <v>127</v>
+      </c>
+      <c r="B127">
+        <v>0.001683175999994546</v>
+      </c>
+      <c r="C127">
+        <v>0.1039052280000055</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3">
+      <c r="A128">
+        <v>128</v>
+      </c>
+      <c r="B128">
+        <v>0.00169195399999353</v>
+      </c>
+      <c r="C128">
+        <v>0.1067604709999841</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3">
+      <c r="A129">
+        <v>129</v>
+      </c>
+      <c r="B129">
+        <v>0.001714428000000225</v>
+      </c>
+      <c r="C129">
+        <v>0.1106222460000049</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3">
+      <c r="A130">
+        <v>130</v>
+      </c>
+      <c r="B130">
+        <v>0.001747910000005959</v>
+      </c>
+      <c r="C130">
+        <v>0.1141673580000088</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3">
+      <c r="A131">
+        <v>131</v>
+      </c>
+      <c r="B131">
+        <v>0.001765585999999075</v>
+      </c>
+      <c r="C131">
+        <v>0.118367214999987</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3">
+      <c r="A132">
+        <v>132</v>
+      </c>
+      <c r="B132">
+        <v>0.001802054000008866</v>
+      </c>
+      <c r="C132">
+        <v>0.1226861889999964</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3">
+      <c r="A133">
+        <v>133</v>
+      </c>
+      <c r="B133">
+        <v>0.001792837999987569</v>
+      </c>
+      <c r="C133">
+        <v>0.12689053900001</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3">
+      <c r="A134">
+        <v>134</v>
+      </c>
+      <c r="B134">
+        <v>0.001820691000018542</v>
+      </c>
+      <c r="C134">
+        <v>0.1309928970000078</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3">
+      <c r="A135">
+        <v>135</v>
+      </c>
+      <c r="B135">
+        <v>0.001864060999998855</v>
+      </c>
+      <c r="C135">
+        <v>0.1352810069999964</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3">
+      <c r="A136">
+        <v>136</v>
+      </c>
+      <c r="B136">
+        <v>0.001887126000005992</v>
+      </c>
+      <c r="C136">
+        <v>0.1396134440000014</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3">
+      <c r="A137">
+        <v>137</v>
+      </c>
+      <c r="B137">
+        <v>0.001911603999992621</v>
+      </c>
+      <c r="C137">
+        <v>0.1450525769999945</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3">
+      <c r="A138">
+        <v>138</v>
+      </c>
+      <c r="B138">
+        <v>0.001929100999989259</v>
+      </c>
+      <c r="C138">
+        <v>0.149505444000024</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3">
+      <c r="A139">
+        <v>139</v>
+      </c>
+      <c r="B139">
+        <v>0.001988512000002629</v>
+      </c>
+      <c r="C139">
+        <v>0.1538767670000129</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3">
+      <c r="A140">
+        <v>140</v>
+      </c>
+      <c r="B140">
+        <v>0.001992729000014606</v>
+      </c>
+      <c r="C140">
+        <v>0.1592529219999915</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3">
+      <c r="A141">
+        <v>141</v>
+      </c>
+      <c r="B141">
+        <v>0.002001224999980877</v>
+      </c>
+      <c r="C141">
+        <v>0.1636692920000041</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3">
+      <c r="A142">
+        <v>142</v>
+      </c>
+      <c r="B142">
+        <v>0.002068408999989515</v>
+      </c>
+      <c r="C142">
+        <v>0.1694552549999935</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3">
+      <c r="A143">
+        <v>143</v>
+      </c>
+      <c r="B143">
+        <v>0.00211804899998242</v>
+      </c>
+      <c r="C143">
+        <v>0.1744005769999694</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3">
+      <c r="A144">
+        <v>144</v>
+      </c>
+      <c r="B144">
+        <v>0.002087730000002921</v>
+      </c>
+      <c r="C144">
+        <v>0.1800547929999766</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3">
+      <c r="A145">
+        <v>145</v>
+      </c>
+      <c r="B145">
+        <v>0.002111394000012297</v>
+      </c>
+      <c r="C145">
+        <v>0.1849856080000063</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3">
+      <c r="A146">
+        <v>146</v>
+      </c>
+      <c r="B146">
+        <v>0.002122409999997217</v>
+      </c>
+      <c r="C146">
+        <v>0.1910674869999912</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3">
+      <c r="A147">
+        <v>147</v>
+      </c>
+      <c r="B147">
+        <v>0.002144539999985682</v>
+      </c>
+      <c r="C147">
+        <v>0.1959863590000077</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3">
+      <c r="A148">
+        <v>148</v>
+      </c>
+      <c r="B148">
+        <v>0.002209451000026093</v>
+      </c>
+      <c r="C148">
+        <v>0.2022086580000132</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3">
+      <c r="A149">
+        <v>149</v>
+      </c>
+      <c r="B149">
+        <v>0.0022486600000002</v>
+      </c>
+      <c r="C149">
+        <v>0.2086860409999781</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3">
+      <c r="A150">
+        <v>150</v>
+      </c>
+      <c r="B150">
+        <v>0.002336720000012065</v>
+      </c>
+      <c r="C150">
+        <v>0.2168718120000085</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3">
+      <c r="A151">
+        <v>151</v>
+      </c>
+      <c r="B151">
+        <v>0.002362506000004032</v>
+      </c>
+      <c r="C151">
+        <v>0.2216537110000263</v>
       </c>
     </row>
   </sheetData>
